--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp6-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp6-Bmpr2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.04655766666666</v>
+        <v>17.70643966666667</v>
       </c>
       <c r="H2">
-        <v>114.139673</v>
+        <v>53.119319</v>
       </c>
       <c r="I2">
-        <v>0.8090698722086991</v>
+        <v>0.4380235920947999</v>
       </c>
       <c r="J2">
-        <v>0.8090698722086991</v>
+        <v>0.4380235920947999</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.69574966666666</v>
+        <v>46.29121633333333</v>
       </c>
       <c r="N2">
-        <v>131.087249</v>
+        <v>138.873649</v>
       </c>
       <c r="O2">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="P2">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="Q2">
-        <v>1662.472859481064</v>
+        <v>819.6526291027812</v>
       </c>
       <c r="R2">
-        <v>14962.25573532957</v>
+        <v>7376.873661925031</v>
       </c>
       <c r="S2">
-        <v>0.2722571119333015</v>
+        <v>0.13726187559421</v>
       </c>
       <c r="T2">
-        <v>0.2722571119333015</v>
+        <v>0.13726187559421</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.04655766666666</v>
+        <v>17.70643966666667</v>
       </c>
       <c r="H3">
-        <v>114.139673</v>
+        <v>53.119319</v>
       </c>
       <c r="I3">
-        <v>0.8090698722086991</v>
+        <v>0.4380235920947999</v>
       </c>
       <c r="J3">
-        <v>0.8090698722086991</v>
+        <v>0.4380235920947999</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.81622333333334</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N3">
         <v>140.44867</v>
       </c>
       <c r="O3">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="P3">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="Q3">
-        <v>1781.196140787212</v>
+        <v>828.948633872859</v>
       </c>
       <c r="R3">
-        <v>16030.76526708491</v>
+        <v>7460.53770485573</v>
       </c>
       <c r="S3">
-        <v>0.2916999903558379</v>
+        <v>0.1388186168343014</v>
       </c>
       <c r="T3">
-        <v>0.2916999903558379</v>
+        <v>0.1388186168343014</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.04655766666666</v>
+        <v>17.70643966666667</v>
       </c>
       <c r="H4">
-        <v>114.139673</v>
+        <v>53.119319</v>
       </c>
       <c r="I4">
-        <v>0.8090698722086991</v>
+        <v>0.4380235920947999</v>
       </c>
       <c r="J4">
-        <v>0.8090698722086991</v>
+        <v>0.4380235920947999</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.25020333333334</v>
+        <v>38.53544233333333</v>
       </c>
       <c r="N4">
-        <v>63.75061</v>
+        <v>115.606327</v>
       </c>
       <c r="O4">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="P4">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="Q4">
-        <v>808.497086550059</v>
+        <v>682.3254847034792</v>
       </c>
       <c r="R4">
-        <v>7276.47377895053</v>
+        <v>6140.929362331313</v>
       </c>
       <c r="S4">
-        <v>0.1324046167342046</v>
+        <v>0.1142645951110391</v>
       </c>
       <c r="T4">
-        <v>0.1324046167342046</v>
+        <v>0.1142645951110391</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.04655766666666</v>
+        <v>17.70643966666667</v>
       </c>
       <c r="H5">
-        <v>114.139673</v>
+        <v>53.119319</v>
       </c>
       <c r="I5">
-        <v>0.8090698722086991</v>
+        <v>0.4380235920947999</v>
       </c>
       <c r="J5">
-        <v>0.8090698722086991</v>
+        <v>0.4380235920947999</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.08903066666667</v>
+        <v>16.07945366666667</v>
       </c>
       <c r="N5">
-        <v>54.26709200000001</v>
+        <v>48.238361</v>
       </c>
       <c r="O5">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="P5">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="Q5">
-        <v>688.2253483934352</v>
+        <v>284.7098762217955</v>
       </c>
       <c r="R5">
-        <v>6194.028135540916</v>
+        <v>2562.388885996159</v>
       </c>
       <c r="S5">
-        <v>0.112708153185355</v>
+        <v>0.04767850455524931</v>
       </c>
       <c r="T5">
-        <v>0.112708153185355</v>
+        <v>0.04767850455524931</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.617245333333333</v>
+        <v>1.617245333333334</v>
       </c>
       <c r="H6">
-        <v>4.851736</v>
+        <v>4.851736000000001</v>
       </c>
       <c r="I6">
-        <v>0.03439113957782537</v>
+        <v>0.04000756919748267</v>
       </c>
       <c r="J6">
-        <v>0.03439113957782537</v>
+        <v>0.04000756919748267</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>43.69574966666666</v>
+        <v>46.29121633333333</v>
       </c>
       <c r="N6">
-        <v>131.087249</v>
+        <v>138.873649</v>
       </c>
       <c r="O6">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="P6">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="Q6">
-        <v>70.66674723491822</v>
+        <v>74.86425358940713</v>
       </c>
       <c r="R6">
-        <v>636.0007251142639</v>
+        <v>673.7782823046641</v>
       </c>
       <c r="S6">
-        <v>0.01157283525091953</v>
+        <v>0.01253702787959217</v>
       </c>
       <c r="T6">
-        <v>0.01157283525091953</v>
+        <v>0.01253702787959217</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.617245333333333</v>
+        <v>1.617245333333334</v>
       </c>
       <c r="H7">
-        <v>4.851736</v>
+        <v>4.851736000000001</v>
       </c>
       <c r="I7">
-        <v>0.03439113957782537</v>
+        <v>0.04000756919748267</v>
       </c>
       <c r="J7">
-        <v>0.03439113957782537</v>
+        <v>0.04000756919748267</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>46.81622333333334</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N7">
         <v>140.44867</v>
       </c>
       <c r="O7">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="P7">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="Q7">
         <v>75.71331871012445</v>
@@ -883,10 +883,10 @@
         <v>681.4198683911201</v>
       </c>
       <c r="S7">
-        <v>0.01239929384070578</v>
+        <v>0.01267921527316994</v>
       </c>
       <c r="T7">
-        <v>0.01239929384070578</v>
+        <v>0.01267921527316994</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.617245333333333</v>
+        <v>1.617245333333334</v>
       </c>
       <c r="H8">
-        <v>4.851736</v>
+        <v>4.851736000000001</v>
       </c>
       <c r="I8">
-        <v>0.03439113957782537</v>
+        <v>0.04000756919748267</v>
       </c>
       <c r="J8">
-        <v>0.03439113957782537</v>
+        <v>0.04000756919748267</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.25020333333334</v>
+        <v>38.53544233333333</v>
       </c>
       <c r="N8">
-        <v>63.75061</v>
+        <v>115.606327</v>
       </c>
       <c r="O8">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="P8">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="Q8">
-        <v>34.36679217321777</v>
+        <v>62.32126428151911</v>
       </c>
       <c r="R8">
-        <v>309.30112955896</v>
+        <v>560.8913785336721</v>
       </c>
       <c r="S8">
-        <v>0.005628124110496998</v>
+        <v>0.01043653533332482</v>
       </c>
       <c r="T8">
-        <v>0.005628124110496998</v>
+        <v>0.01043653533332482</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.617245333333333</v>
+        <v>1.617245333333334</v>
       </c>
       <c r="H9">
-        <v>4.851736</v>
+        <v>4.851736000000001</v>
       </c>
       <c r="I9">
-        <v>0.03439113957782537</v>
+        <v>0.04000756919748267</v>
       </c>
       <c r="J9">
-        <v>0.03439113957782537</v>
+        <v>0.04000756919748267</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.08903066666667</v>
+        <v>16.07945366666667</v>
       </c>
       <c r="N9">
-        <v>54.26709200000001</v>
+        <v>48.238361</v>
       </c>
       <c r="O9">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="P9">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="Q9">
-        <v>29.25440043019022</v>
+        <v>26.00442140496623</v>
       </c>
       <c r="R9">
-        <v>263.289603871712</v>
+        <v>234.039792644696</v>
       </c>
       <c r="S9">
-        <v>0.004790886375703052</v>
+        <v>0.004354790711395736</v>
       </c>
       <c r="T9">
-        <v>0.004790886375703052</v>
+        <v>0.004354790711395736</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.361255</v>
+        <v>21.099799</v>
       </c>
       <c r="H10">
-        <v>22.083765</v>
+        <v>63.299397</v>
       </c>
       <c r="I10">
-        <v>0.1565389882134754</v>
+        <v>0.5219688387077175</v>
       </c>
       <c r="J10">
-        <v>0.1565389882134754</v>
+        <v>0.5219688387077175</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>43.69574966666666</v>
+        <v>46.29121633333333</v>
       </c>
       <c r="N10">
-        <v>131.087249</v>
+        <v>138.873649</v>
       </c>
       <c r="O10">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="P10">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="Q10">
-        <v>321.6555557124983</v>
+        <v>976.7353600988504</v>
       </c>
       <c r="R10">
-        <v>2894.900001412484</v>
+        <v>8790.618240889653</v>
       </c>
       <c r="S10">
-        <v>0.052676356270214</v>
+        <v>0.1635674952121</v>
       </c>
       <c r="T10">
-        <v>0.052676356270214</v>
+        <v>0.1635674952121</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.361255</v>
+        <v>21.099799</v>
       </c>
       <c r="H11">
-        <v>22.083765</v>
+        <v>63.299397</v>
       </c>
       <c r="I11">
-        <v>0.1565389882134754</v>
+        <v>0.5219688387077175</v>
       </c>
       <c r="J11">
-        <v>0.1565389882134754</v>
+        <v>0.5219688387077175</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>46.81622333333334</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N11">
         <v>140.44867</v>
       </c>
       <c r="O11">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="P11">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="Q11">
-        <v>344.6261580936167</v>
+        <v>987.8129022724434</v>
       </c>
       <c r="R11">
-        <v>3101.63542284255</v>
+        <v>8890.316120451989</v>
       </c>
       <c r="S11">
-        <v>0.05643816797618293</v>
+        <v>0.1654225788923485</v>
       </c>
       <c r="T11">
-        <v>0.05643816797618293</v>
+        <v>0.1654225788923485</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.361255</v>
+        <v>21.099799</v>
       </c>
       <c r="H12">
-        <v>22.083765</v>
+        <v>63.299397</v>
       </c>
       <c r="I12">
-        <v>0.1565389882134754</v>
+        <v>0.5219688387077175</v>
       </c>
       <c r="J12">
-        <v>0.1565389882134754</v>
+        <v>0.5219688387077175</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.25020333333334</v>
+        <v>38.53544233333333</v>
       </c>
       <c r="N12">
-        <v>63.75061</v>
+        <v>115.606327</v>
       </c>
       <c r="O12">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="P12">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="Q12">
-        <v>156.4281655385167</v>
+        <v>813.0900876094242</v>
       </c>
       <c r="R12">
-        <v>1407.85348984665</v>
+        <v>7317.810788484819</v>
       </c>
       <c r="S12">
-        <v>0.0256176696850467</v>
+        <v>0.1361628896066594</v>
       </c>
       <c r="T12">
-        <v>0.0256176696850467</v>
+        <v>0.1361628896066594</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.361255</v>
+        <v>21.099799</v>
       </c>
       <c r="H13">
-        <v>22.083765</v>
+        <v>63.299397</v>
       </c>
       <c r="I13">
-        <v>0.1565389882134754</v>
+        <v>0.5219688387077175</v>
       </c>
       <c r="J13">
-        <v>0.1565389882134754</v>
+        <v>0.5219688387077175</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.08903066666667</v>
+        <v>16.07945366666667</v>
       </c>
       <c r="N13">
-        <v>54.26709200000001</v>
+        <v>48.238361</v>
       </c>
       <c r="O13">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="P13">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="Q13">
-        <v>133.1579674401534</v>
+        <v>339.2732403964797</v>
       </c>
       <c r="R13">
-        <v>1198.42170696138</v>
+        <v>3053.459163568317</v>
       </c>
       <c r="S13">
-        <v>0.02180679428203182</v>
+        <v>0.05681587499660969</v>
       </c>
       <c r="T13">
-        <v>0.02180679428203182</v>
+        <v>0.05681587499660969</v>
       </c>
     </row>
   </sheetData>
